--- a/Aula2/Aula23_BasedeDados.xlsx
+++ b/Aula2/Aula23_BasedeDados.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/ExcelTrainne/Aula2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E090C46F-F749-C944-9500-BE0EC7E025B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFA8E6C-4AFF-1C4D-B4E6-EBBF864FD7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25220" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Aula23" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Aula23" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="80">
   <si>
     <t>Encomenda</t>
   </si>
@@ -169,6 +173,105 @@
   </si>
   <si>
     <t>Carambolas</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>12-Jan</t>
+  </si>
+  <si>
+    <t>16-Jan</t>
+  </si>
+  <si>
+    <t>18-Jan</t>
+  </si>
+  <si>
+    <t>21-Jan</t>
+  </si>
+  <si>
+    <t>22-Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>12-Feb</t>
+  </si>
+  <si>
+    <t>16-Feb</t>
+  </si>
+  <si>
+    <t>18-Feb</t>
+  </si>
+  <si>
+    <t>21-Feb</t>
+  </si>
+  <si>
+    <t>22-Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>01-Mar</t>
+  </si>
+  <si>
+    <t>05-Mar</t>
+  </si>
+  <si>
+    <t>08-Mar</t>
+  </si>
+  <si>
+    <t>12-Mar</t>
+  </si>
+  <si>
+    <t>13-Mar</t>
+  </si>
+  <si>
+    <t>15-Mar</t>
+  </si>
+  <si>
+    <t>18-Mar</t>
+  </si>
+  <si>
+    <t>22-Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>01-Apr</t>
+  </si>
+  <si>
+    <t>05-Apr</t>
+  </si>
+  <si>
+    <t>08-Apr</t>
+  </si>
+  <si>
+    <t>12-Apr</t>
+  </si>
+  <si>
+    <t>13-Apr</t>
+  </si>
+  <si>
+    <t>15-Apr</t>
+  </si>
+  <si>
+    <t>18-Apr</t>
+  </si>
+  <si>
+    <t>22-Apr</t>
   </si>
 </sst>
 </file>
@@ -492,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -607,6 +710,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -652,9 +770,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -739,6 +865,1904 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Célia Natália Lemos Figueiredo" refreshedDate="43766.493898379631" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="92" xr:uid="{FFFED61C-111C-9C44-98A7-90D3A8BF80E9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G93" sheet="Aula23"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Encomenda" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
+    </cacheField>
+    <cacheField name="Produto" numFmtId="0">
+      <sharedItems count="33">
+        <s v="Cenouras"/>
+        <s v="Peras"/>
+        <s v="Maças"/>
+        <s v="Alface"/>
+        <s v="Anonas"/>
+        <s v="Mangas"/>
+        <s v="Laranjas"/>
+        <s v="Cebolas"/>
+        <s v="Batatas"/>
+        <s v="Alhos"/>
+        <s v="Couves-Flor"/>
+        <s v="Brócolos"/>
+        <s v="Ananas"/>
+        <s v="Tangerina"/>
+        <s v="Nabos"/>
+        <s v="Tângeras"/>
+        <s v="Clementinas"/>
+        <s v="Pencas"/>
+        <s v="Maracujás"/>
+        <s v="Nabiças"/>
+        <s v="Tangerinas"/>
+        <s v="Ananases"/>
+        <s v="Mamões"/>
+        <s v="Diospiros"/>
+        <s v="Tomates"/>
+        <s v="Limões"/>
+        <s v="Abacates"/>
+        <s v="Açais"/>
+        <s v="Acerolas"/>
+        <s v="Amoras"/>
+        <s v="Framboesa"/>
+        <s v="Banana"/>
+        <s v="Carambolas"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Categoria" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Vegetal"/>
+        <s v="Fruta"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Qtd" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="1200"/>
+    </cacheField>
+    <cacheField name="Data" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-12T00:00:00" maxDate="2018-04-23T00:00:00" count="26">
+        <d v="2018-01-12T00:00:00"/>
+        <d v="2018-01-16T00:00:00"/>
+        <d v="2018-01-18T00:00:00"/>
+        <d v="2018-01-21T00:00:00"/>
+        <d v="2018-01-22T00:00:00"/>
+        <d v="2018-02-12T00:00:00"/>
+        <d v="2018-02-16T00:00:00"/>
+        <d v="2018-02-18T00:00:00"/>
+        <d v="2018-02-21T00:00:00"/>
+        <d v="2018-02-22T00:00:00"/>
+        <d v="2018-03-01T00:00:00"/>
+        <d v="2018-03-05T00:00:00"/>
+        <d v="2018-03-08T00:00:00"/>
+        <d v="2018-03-12T00:00:00"/>
+        <d v="2018-03-13T00:00:00"/>
+        <d v="2018-03-15T00:00:00"/>
+        <d v="2018-03-18T00:00:00"/>
+        <d v="2018-03-22T00:00:00"/>
+        <d v="2018-04-01T00:00:00"/>
+        <d v="2018-04-05T00:00:00"/>
+        <d v="2018-04-08T00:00:00"/>
+        <d v="2018-04-12T00:00:00"/>
+        <d v="2018-04-13T00:00:00"/>
+        <d v="2018-04-15T00:00:00"/>
+        <d v="2018-04-18T00:00:00"/>
+        <d v="2018-04-22T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="7" base="5">
+        <rangePr groupBy="days" startDate="2018-01-12T00:00:00" endDate="2018-04-23T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;12/01/2018"/>
+          <s v="01-Jan"/>
+          <s v="02-Jan"/>
+          <s v="03-Jan"/>
+          <s v="04-Jan"/>
+          <s v="05-Jan"/>
+          <s v="06-Jan"/>
+          <s v="07-Jan"/>
+          <s v="08-Jan"/>
+          <s v="09-Jan"/>
+          <s v="10-Jan"/>
+          <s v="11-Jan"/>
+          <s v="12-Jan"/>
+          <s v="13-Jan"/>
+          <s v="14-Jan"/>
+          <s v="15-Jan"/>
+          <s v="16-Jan"/>
+          <s v="17-Jan"/>
+          <s v="18-Jan"/>
+          <s v="19-Jan"/>
+          <s v="20-Jan"/>
+          <s v="21-Jan"/>
+          <s v="22-Jan"/>
+          <s v="23-Jan"/>
+          <s v="24-Jan"/>
+          <s v="25-Jan"/>
+          <s v="26-Jan"/>
+          <s v="27-Jan"/>
+          <s v="28-Jan"/>
+          <s v="29-Jan"/>
+          <s v="30-Jan"/>
+          <s v="31-Jan"/>
+          <s v="01-Feb"/>
+          <s v="02-Feb"/>
+          <s v="03-Feb"/>
+          <s v="04-Feb"/>
+          <s v="05-Feb"/>
+          <s v="06-Feb"/>
+          <s v="07-Feb"/>
+          <s v="08-Feb"/>
+          <s v="09-Feb"/>
+          <s v="10-Feb"/>
+          <s v="11-Feb"/>
+          <s v="12-Feb"/>
+          <s v="13-Feb"/>
+          <s v="14-Feb"/>
+          <s v="15-Feb"/>
+          <s v="16-Feb"/>
+          <s v="17-Feb"/>
+          <s v="18-Feb"/>
+          <s v="19-Feb"/>
+          <s v="20-Feb"/>
+          <s v="21-Feb"/>
+          <s v="22-Feb"/>
+          <s v="23-Feb"/>
+          <s v="24-Feb"/>
+          <s v="25-Feb"/>
+          <s v="26-Feb"/>
+          <s v="27-Feb"/>
+          <s v="28-Feb"/>
+          <s v="29-Feb"/>
+          <s v="01-Mar"/>
+          <s v="02-Mar"/>
+          <s v="03-Mar"/>
+          <s v="04-Mar"/>
+          <s v="05-Mar"/>
+          <s v="06-Mar"/>
+          <s v="07-Mar"/>
+          <s v="08-Mar"/>
+          <s v="09-Mar"/>
+          <s v="10-Mar"/>
+          <s v="11-Mar"/>
+          <s v="12-Mar"/>
+          <s v="13-Mar"/>
+          <s v="14-Mar"/>
+          <s v="15-Mar"/>
+          <s v="16-Mar"/>
+          <s v="17-Mar"/>
+          <s v="18-Mar"/>
+          <s v="19-Mar"/>
+          <s v="20-Mar"/>
+          <s v="21-Mar"/>
+          <s v="22-Mar"/>
+          <s v="23-Mar"/>
+          <s v="24-Mar"/>
+          <s v="25-Mar"/>
+          <s v="26-Mar"/>
+          <s v="27-Mar"/>
+          <s v="28-Mar"/>
+          <s v="29-Mar"/>
+          <s v="30-Mar"/>
+          <s v="31-Mar"/>
+          <s v="01-Apr"/>
+          <s v="02-Apr"/>
+          <s v="03-Apr"/>
+          <s v="04-Apr"/>
+          <s v="05-Apr"/>
+          <s v="06-Apr"/>
+          <s v="07-Apr"/>
+          <s v="08-Apr"/>
+          <s v="09-Apr"/>
+          <s v="10-Apr"/>
+          <s v="11-Apr"/>
+          <s v="12-Apr"/>
+          <s v="13-Apr"/>
+          <s v="14-Apr"/>
+          <s v="15-Apr"/>
+          <s v="16-Apr"/>
+          <s v="17-Apr"/>
+          <s v="18-Apr"/>
+          <s v="19-Apr"/>
+          <s v="20-Apr"/>
+          <s v="21-Apr"/>
+          <s v="22-Apr"/>
+          <s v="23-Apr"/>
+          <s v="24-Apr"/>
+          <s v="25-Apr"/>
+          <s v="26-Apr"/>
+          <s v="27-Apr"/>
+          <s v="28-Apr"/>
+          <s v="29-Apr"/>
+          <s v="30-Apr"/>
+          <s v="01-May"/>
+          <s v="02-May"/>
+          <s v="03-May"/>
+          <s v="04-May"/>
+          <s v="05-May"/>
+          <s v="06-May"/>
+          <s v="07-May"/>
+          <s v="08-May"/>
+          <s v="09-May"/>
+          <s v="10-May"/>
+          <s v="11-May"/>
+          <s v="12-May"/>
+          <s v="13-May"/>
+          <s v="14-May"/>
+          <s v="15-May"/>
+          <s v="16-May"/>
+          <s v="17-May"/>
+          <s v="18-May"/>
+          <s v="19-May"/>
+          <s v="20-May"/>
+          <s v="21-May"/>
+          <s v="22-May"/>
+          <s v="23-May"/>
+          <s v="24-May"/>
+          <s v="25-May"/>
+          <s v="26-May"/>
+          <s v="27-May"/>
+          <s v="28-May"/>
+          <s v="29-May"/>
+          <s v="30-May"/>
+          <s v="31-May"/>
+          <s v="01-Jun"/>
+          <s v="02-Jun"/>
+          <s v="03-Jun"/>
+          <s v="04-Jun"/>
+          <s v="05-Jun"/>
+          <s v="06-Jun"/>
+          <s v="07-Jun"/>
+          <s v="08-Jun"/>
+          <s v="09-Jun"/>
+          <s v="10-Jun"/>
+          <s v="11-Jun"/>
+          <s v="12-Jun"/>
+          <s v="13-Jun"/>
+          <s v="14-Jun"/>
+          <s v="15-Jun"/>
+          <s v="16-Jun"/>
+          <s v="17-Jun"/>
+          <s v="18-Jun"/>
+          <s v="19-Jun"/>
+          <s v="20-Jun"/>
+          <s v="21-Jun"/>
+          <s v="22-Jun"/>
+          <s v="23-Jun"/>
+          <s v="24-Jun"/>
+          <s v="25-Jun"/>
+          <s v="26-Jun"/>
+          <s v="27-Jun"/>
+          <s v="28-Jun"/>
+          <s v="29-Jun"/>
+          <s v="30-Jun"/>
+          <s v="01-Jul"/>
+          <s v="02-Jul"/>
+          <s v="03-Jul"/>
+          <s v="04-Jul"/>
+          <s v="05-Jul"/>
+          <s v="06-Jul"/>
+          <s v="07-Jul"/>
+          <s v="08-Jul"/>
+          <s v="09-Jul"/>
+          <s v="10-Jul"/>
+          <s v="11-Jul"/>
+          <s v="12-Jul"/>
+          <s v="13-Jul"/>
+          <s v="14-Jul"/>
+          <s v="15-Jul"/>
+          <s v="16-Jul"/>
+          <s v="17-Jul"/>
+          <s v="18-Jul"/>
+          <s v="19-Jul"/>
+          <s v="20-Jul"/>
+          <s v="21-Jul"/>
+          <s v="22-Jul"/>
+          <s v="23-Jul"/>
+          <s v="24-Jul"/>
+          <s v="25-Jul"/>
+          <s v="26-Jul"/>
+          <s v="27-Jul"/>
+          <s v="28-Jul"/>
+          <s v="29-Jul"/>
+          <s v="30-Jul"/>
+          <s v="31-Jul"/>
+          <s v="01-Aug"/>
+          <s v="02-Aug"/>
+          <s v="03-Aug"/>
+          <s v="04-Aug"/>
+          <s v="05-Aug"/>
+          <s v="06-Aug"/>
+          <s v="07-Aug"/>
+          <s v="08-Aug"/>
+          <s v="09-Aug"/>
+          <s v="10-Aug"/>
+          <s v="11-Aug"/>
+          <s v="12-Aug"/>
+          <s v="13-Aug"/>
+          <s v="14-Aug"/>
+          <s v="15-Aug"/>
+          <s v="16-Aug"/>
+          <s v="17-Aug"/>
+          <s v="18-Aug"/>
+          <s v="19-Aug"/>
+          <s v="20-Aug"/>
+          <s v="21-Aug"/>
+          <s v="22-Aug"/>
+          <s v="23-Aug"/>
+          <s v="24-Aug"/>
+          <s v="25-Aug"/>
+          <s v="26-Aug"/>
+          <s v="27-Aug"/>
+          <s v="28-Aug"/>
+          <s v="29-Aug"/>
+          <s v="30-Aug"/>
+          <s v="31-Aug"/>
+          <s v="01-Sep"/>
+          <s v="02-Sep"/>
+          <s v="03-Sep"/>
+          <s v="04-Sep"/>
+          <s v="05-Sep"/>
+          <s v="06-Sep"/>
+          <s v="07-Sep"/>
+          <s v="08-Sep"/>
+          <s v="09-Sep"/>
+          <s v="10-Sep"/>
+          <s v="11-Sep"/>
+          <s v="12-Sep"/>
+          <s v="13-Sep"/>
+          <s v="14-Sep"/>
+          <s v="15-Sep"/>
+          <s v="16-Sep"/>
+          <s v="17-Sep"/>
+          <s v="18-Sep"/>
+          <s v="19-Sep"/>
+          <s v="20-Sep"/>
+          <s v="21-Sep"/>
+          <s v="22-Sep"/>
+          <s v="23-Sep"/>
+          <s v="24-Sep"/>
+          <s v="25-Sep"/>
+          <s v="26-Sep"/>
+          <s v="27-Sep"/>
+          <s v="28-Sep"/>
+          <s v="29-Sep"/>
+          <s v="30-Sep"/>
+          <s v="01-Oct"/>
+          <s v="02-Oct"/>
+          <s v="03-Oct"/>
+          <s v="04-Oct"/>
+          <s v="05-Oct"/>
+          <s v="06-Oct"/>
+          <s v="07-Oct"/>
+          <s v="08-Oct"/>
+          <s v="09-Oct"/>
+          <s v="10-Oct"/>
+          <s v="11-Oct"/>
+          <s v="12-Oct"/>
+          <s v="13-Oct"/>
+          <s v="14-Oct"/>
+          <s v="15-Oct"/>
+          <s v="16-Oct"/>
+          <s v="17-Oct"/>
+          <s v="18-Oct"/>
+          <s v="19-Oct"/>
+          <s v="20-Oct"/>
+          <s v="21-Oct"/>
+          <s v="22-Oct"/>
+          <s v="23-Oct"/>
+          <s v="24-Oct"/>
+          <s v="25-Oct"/>
+          <s v="26-Oct"/>
+          <s v="27-Oct"/>
+          <s v="28-Oct"/>
+          <s v="29-Oct"/>
+          <s v="30-Oct"/>
+          <s v="31-Oct"/>
+          <s v="01-Nov"/>
+          <s v="02-Nov"/>
+          <s v="03-Nov"/>
+          <s v="04-Nov"/>
+          <s v="05-Nov"/>
+          <s v="06-Nov"/>
+          <s v="07-Nov"/>
+          <s v="08-Nov"/>
+          <s v="09-Nov"/>
+          <s v="10-Nov"/>
+          <s v="11-Nov"/>
+          <s v="12-Nov"/>
+          <s v="13-Nov"/>
+          <s v="14-Nov"/>
+          <s v="15-Nov"/>
+          <s v="16-Nov"/>
+          <s v="17-Nov"/>
+          <s v="18-Nov"/>
+          <s v="19-Nov"/>
+          <s v="20-Nov"/>
+          <s v="21-Nov"/>
+          <s v="22-Nov"/>
+          <s v="23-Nov"/>
+          <s v="24-Nov"/>
+          <s v="25-Nov"/>
+          <s v="26-Nov"/>
+          <s v="27-Nov"/>
+          <s v="28-Nov"/>
+          <s v="29-Nov"/>
+          <s v="30-Nov"/>
+          <s v="01-Dec"/>
+          <s v="02-Dec"/>
+          <s v="03-Dec"/>
+          <s v="04-Dec"/>
+          <s v="05-Dec"/>
+          <s v="06-Dec"/>
+          <s v="07-Dec"/>
+          <s v="08-Dec"/>
+          <s v="09-Dec"/>
+          <s v="10-Dec"/>
+          <s v="11-Dec"/>
+          <s v="12-Dec"/>
+          <s v="13-Dec"/>
+          <s v="14-Dec"/>
+          <s v="15-Dec"/>
+          <s v="16-Dec"/>
+          <s v="17-Dec"/>
+          <s v="18-Dec"/>
+          <s v="19-Dec"/>
+          <s v="20-Dec"/>
+          <s v="21-Dec"/>
+          <s v="22-Dec"/>
+          <s v="23-Dec"/>
+          <s v="24-Dec"/>
+          <s v="25-Dec"/>
+          <s v="26-Dec"/>
+          <s v="27-Dec"/>
+          <s v="28-Dec"/>
+          <s v="29-Dec"/>
+          <s v="30-Dec"/>
+          <s v="31-Dec"/>
+          <s v="&gt;23/04/2018"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="País" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Months" numFmtId="0" databaseField="0">
+      <fieldGroup base="5">
+        <rangePr groupBy="months" startDate="2018-01-12T00:00:00" endDate="2018-04-23T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;12/01/2018"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;23/04/2018"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="400"/>
+    <x v="0"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="100"/>
+    <x v="0"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="150"/>
+    <x v="0"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="260"/>
+    <x v="1"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="750"/>
+    <x v="1"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="70"/>
+    <x v="1"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="500"/>
+    <x v="2"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="450"/>
+    <x v="2"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="1200"/>
+    <x v="2"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="1000"/>
+    <x v="2"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="800"/>
+    <x v="3"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="450"/>
+    <x v="3"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="250"/>
+    <x v="3"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="120"/>
+    <x v="4"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="250"/>
+    <x v="4"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="400"/>
+    <x v="5"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="100"/>
+    <x v="5"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="150"/>
+    <x v="5"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="260"/>
+    <x v="6"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="750"/>
+    <x v="6"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="70"/>
+    <x v="6"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="500"/>
+    <x v="7"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="450"/>
+    <x v="7"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="1200"/>
+    <x v="7"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="1000"/>
+    <x v="7"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="800"/>
+    <x v="8"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="450"/>
+    <x v="8"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="250"/>
+    <x v="8"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="120"/>
+    <x v="8"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="120"/>
+    <x v="9"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="250"/>
+    <x v="9"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="400"/>
+    <x v="10"/>
+    <s v="Marrocos"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="100"/>
+    <x v="10"/>
+    <s v="Marrocos"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="150"/>
+    <x v="10"/>
+    <s v="Marrocos"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="260"/>
+    <x v="10"/>
+    <s v="Marrocos"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="750"/>
+    <x v="11"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="70"/>
+    <x v="11"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="500"/>
+    <x v="11"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="450"/>
+    <x v="11"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="1200"/>
+    <x v="12"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="1000"/>
+    <x v="12"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="800"/>
+    <x v="12"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="300"/>
+    <x v="13"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="380"/>
+    <x v="13"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="650"/>
+    <x v="13"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="80"/>
+    <x v="14"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="200"/>
+    <x v="14"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="150"/>
+    <x v="14"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="260"/>
+    <x v="14"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="750"/>
+    <x v="15"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="70"/>
+    <x v="15"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="500"/>
+    <x v="15"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="450"/>
+    <x v="15"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="1000"/>
+    <x v="16"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="500"/>
+    <x v="16"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="500"/>
+    <x v="16"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="300"/>
+    <x v="17"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="380"/>
+    <x v="17"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="650"/>
+    <x v="17"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="80"/>
+    <x v="17"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="200"/>
+    <x v="17"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="400"/>
+    <x v="18"/>
+    <s v="Marrocos"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="100"/>
+    <x v="18"/>
+    <s v="Marrocos"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="150"/>
+    <x v="18"/>
+    <s v="Marrocos"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="260"/>
+    <x v="18"/>
+    <s v="Marrocos"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="750"/>
+    <x v="19"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="70"/>
+    <x v="19"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="500"/>
+    <x v="19"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="450"/>
+    <x v="19"/>
+    <s v="Espanha"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="1200"/>
+    <x v="20"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="1000"/>
+    <x v="20"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="800"/>
+    <x v="20"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="40"/>
+    <x v="21"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="380"/>
+    <x v="21"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="650"/>
+    <x v="21"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="80"/>
+    <x v="22"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="200"/>
+    <x v="22"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="150"/>
+    <x v="22"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="260"/>
+    <x v="22"/>
+    <s v="Grécia"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="750"/>
+    <x v="23"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="340"/>
+    <x v="23"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="500"/>
+    <x v="23"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="450"/>
+    <x v="23"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="1000"/>
+    <x v="24"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="500"/>
+    <x v="24"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="500"/>
+    <x v="24"/>
+    <s v="Portugal"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="780"/>
+    <x v="25"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="1200"/>
+    <x v="25"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="650"/>
+    <x v="25"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="80"/>
+    <x v="25"/>
+    <s v="França"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="200"/>
+    <x v="25"/>
+    <s v="França"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{475002C9-D97D-454F-9290-9CF9B00C89F7}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="34">
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="32"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="6"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="7"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="92"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="99"/>
+    </i>
+    <i r="1">
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x v="104"/>
+    </i>
+    <i r="1">
+      <x v="106"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="113"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,2154 +3027,2386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20496426-09A0-F44A-A4D9-B25D87251604}">
+  <dimension ref="A3:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I11:I12"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>400</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>43112</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>100</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>43112</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>150</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>43112</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>260</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>43116</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>750</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>43116</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>70</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>43116</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>500</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>43118</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>450</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>43118</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1200</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>43118</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1000</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>43118</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>800</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>43121</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>450</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>43121</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>250</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>43121</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>120</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>43121</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>120</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>43122</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>250</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>43122</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>400</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>43143</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>100</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>43143</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>150</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>43143</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>260</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>43147</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>750</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>43147</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>70</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>43147</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1">
         <v>7</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>500</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>43149</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
         <v>6</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>450</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>43149</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>1200</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>43149</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>20</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>1000</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>43149</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>800</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>43152</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>9</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>450</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>43152</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>250</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>43152</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>120</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>43152</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>120</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>43153</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1">
         <v>4</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>250</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>43153</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="1">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>4</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>400</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>43160</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>100</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>43160</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="1">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>150</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>43160</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>260</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>43160</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>12</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1">
         <v>5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>750</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>43164</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>12</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>70</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>43164</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>12</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>500</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>43164</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1">
         <v>6</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>450</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>43164</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>13</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>10</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>1200</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>43167</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>13</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>20</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>1000</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>43167</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>13</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>5</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>800</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>43167</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1">
         <v>4</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>300</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>43171</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>14</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1">
         <v>6</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>380</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>43171</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1">
         <v>2</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>650</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>43171</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1">
         <v>3</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>80</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>43172</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>15</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1">
         <v>3</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>200</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>43172</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>15</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1">
         <v>5</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>150</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>43172</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>15</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1">
         <v>2</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>260</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>43172</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>16</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1">
         <v>5</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>750</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>43174</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>16</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>70</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>43174</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>16</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>500</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>43174</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>16</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1">
         <v>6</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>450</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>43174</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>17</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>12</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>1000</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>43177</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>17</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>8</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>500</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>43177</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>17</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>3</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>500</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>43177</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>18</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1">
         <v>4</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>300</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>43181</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>18</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1">
         <v>6</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>380</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>43181</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>18</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61">
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1">
         <v>2</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>650</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>43181</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>18</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62">
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1">
         <v>3</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>80</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>43181</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>18</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1">
         <v>3</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>200</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>43181</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>19</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>4</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>400</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>43191</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>19</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1">
         <v>3</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>100</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>43191</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>19</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1">
         <v>5</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>150</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>43191</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>19</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67">
+      <c r="C67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="1">
         <v>2</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>260</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>43191</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>20</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68">
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1">
         <v>5</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>750</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>43195</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>20</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69">
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>70</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>43195</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>20</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70">
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1">
         <v>7</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>500</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>43195</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71">
+      <c r="C71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="1">
         <v>6</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>450</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>43195</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>21</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>10</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>1200</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="2">
         <v>43198</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>21</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>20</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>1000</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="2">
         <v>43198</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>21</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>5</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>800</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="2">
         <v>43198</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>22</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1">
         <v>2</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>40</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="2">
         <v>43202</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>22</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76">
+      <c r="C76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="1">
         <v>6</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>380</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="2">
         <v>43202</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>22</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1">
         <v>2</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>650</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="2">
         <v>43202</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>23</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1">
         <v>3</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>80</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="2">
         <v>43203</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>23</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1">
         <v>3</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>200</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="2">
         <v>43203</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>23</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1">
         <v>5</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>150</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="2">
         <v>43203</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>23</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1">
         <v>2</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>260</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="2">
         <v>43203</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>24</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="1">
         <v>5</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>750</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="2">
         <v>43205</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>24</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="1">
         <v>100</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <v>340</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="2">
         <v>43205</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>24</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="1">
         <v>7</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>500</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="2">
         <v>43205</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>24</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="1">
         <v>6</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>450</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="2">
         <v>43205</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>25</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>12</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>1000</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="2">
         <v>43208</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>25</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>8</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>500</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="2">
         <v>43208</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>25</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>3</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>500</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="2">
         <v>43208</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>26</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1">
         <v>4</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>780</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="2">
         <v>43212</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>26</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90">
+      <c r="C90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1">
         <v>6</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>1200</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="2">
         <v>43212</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>26</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91">
+      <c r="C91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="1">
         <v>2</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <v>650</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="2">
         <v>43212</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C92" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="1">
         <v>3</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>80</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="2">
         <v>43212</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>26</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="1">
         <v>3</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <v>200</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="2">
         <v>43212</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="1" t="s">
         <v>20</v>
       </c>
     </row>
